--- a/partial/sliding_window_results_window_4.xlsx
+++ b/partial/sliding_window_results_window_4.xlsx
@@ -468,13 +468,13 @@
         <v>29.37</v>
       </c>
       <c r="C2" t="n">
-        <v>28.89001476677979</v>
+        <v>29.7437801361084</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4799852332202157</v>
+        <v>0.3737801361083939</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2303858241094648</v>
+        <v>0.1397115901492095</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>29.54</v>
+        <v>29.53999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>28.75143858845029</v>
+        <v>29.31538963317871</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7885614115497042</v>
+        <v>-0.2246103668212811</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6218290997852619</v>
+        <v>0.05044981688359045</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.55</v>
       </c>
       <c r="C4" t="n">
-        <v>29.89835923284729</v>
+        <v>29.4737377166748</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3483592328472938</v>
+        <v>-0.07626228332519247</v>
       </c>
       <c r="E4" t="n">
-        <v>0.121354155109955</v>
+        <v>0.005815935857971929</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.75</v>
       </c>
       <c r="C5" t="n">
-        <v>29.63077792719183</v>
+        <v>29.6823787689209</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1192220728081672</v>
+        <v>-0.06762123107910156</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01421390264467592</v>
+        <v>0.004572630892653251</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.84</v>
       </c>
       <c r="C6" t="n">
-        <v>30.5128942614997</v>
+        <v>29.89393424987793</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6728942614997031</v>
+        <v>0.05393424987792628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4527866871592308</v>
+        <v>0.00290890330989459</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.81</v>
       </c>
       <c r="C7" t="n">
-        <v>30.38213655779985</v>
+        <v>29.88800621032715</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5721365577998547</v>
+        <v>0.07800621032714616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3273402407710665</v>
+        <v>0.006084968849602965</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.92</v>
       </c>
       <c r="C8" t="n">
-        <v>30.20936628021572</v>
+        <v>29.92011070251465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2893662802157166</v>
+        <v>0.0001107025146467322</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08373284412588064</v>
+        <v>1.225504674910996e-08</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.98</v>
       </c>
       <c r="C9" t="n">
-        <v>29.55296524203012</v>
+        <v>30.01376152038574</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4270347579698814</v>
+        <v>0.03376152038573821</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1823586845143952</v>
+        <v>0.001139840258756617</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>30.04</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>29.82614341319439</v>
+        <v>30.16930961608887</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2138565868056048</v>
+        <v>0.1293096160888751</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04573463972014319</v>
+        <v>0.01672097681305228</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>30.21</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>29.36463635328873</v>
+        <v>30.22289848327637</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8453636467112702</v>
+        <v>0.01289848327635923</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7146396951809773</v>
+        <v>0.0001663708708305187</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.22</v>
       </c>
       <c r="C12" t="n">
-        <v>29.76049113547246</v>
+        <v>30.32418632507324</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4595088645275425</v>
+        <v>0.1041863250732433</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2111483965793914</v>
+        <v>0.01085479033226753</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.38</v>
       </c>
       <c r="C13" t="n">
-        <v>29.57582474233583</v>
+        <v>30.36539268493652</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8041752576641734</v>
+        <v>-0.01460731506347202</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6466978450392397</v>
+        <v>0.0002133736533635364</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.44</v>
       </c>
       <c r="C14" t="n">
-        <v>30.25487101437291</v>
+        <v>30.54109001159668</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1851289856270917</v>
+        <v>0.101090011596682</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03427274131931592</v>
+        <v>0.01021919044461729</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.48</v>
       </c>
       <c r="C15" t="n">
-        <v>30.24752593861029</v>
+        <v>30.4333324432373</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2324740613897056</v>
+        <v>-0.04666755676269929</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05404418921902461</v>
+        <v>0.00217786085419976</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.69</v>
       </c>
       <c r="C16" t="n">
-        <v>30.50795299579393</v>
+        <v>30.44302177429199</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1820470042060691</v>
+        <v>-0.2469782257080055</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03314111174040454</v>
+        <v>0.06099824397387453</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.75</v>
       </c>
       <c r="C17" t="n">
-        <v>30.14916819334217</v>
+        <v>30.52885246276855</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.6008318066578333</v>
+        <v>-0.2211475372314453</v>
       </c>
       <c r="E17" t="n">
-        <v>0.360998859891716</v>
+        <v>0.04890623322353349</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.94</v>
       </c>
       <c r="C18" t="n">
-        <v>30.54755445311316</v>
+        <v>30.65643119812012</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3924455468868437</v>
+        <v>-0.2835688018798805</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1540135072713139</v>
+        <v>0.08041126539959094</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.95</v>
       </c>
       <c r="C19" t="n">
-        <v>30.83058250184288</v>
+        <v>30.76356315612793</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1194174981571194</v>
+        <v>-0.1864368438720732</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01426053886610562</v>
+        <v>0.03475869675297978</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.02</v>
       </c>
       <c r="C20" t="n">
-        <v>31.44412689269855</v>
+        <v>31.10555839538574</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4241268926985455</v>
+        <v>0.08555839538574617</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1798836211101235</v>
+        <v>0.007320239020983671</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.12</v>
       </c>
       <c r="C21" t="n">
-        <v>31.82781453430661</v>
+        <v>31.2354564666748</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7078145343066069</v>
+        <v>0.1154564666748001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5010014149756788</v>
+        <v>0.01333019569702924</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.28</v>
       </c>
       <c r="C22" t="n">
-        <v>31.96328579171908</v>
+        <v>31.31316184997559</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6832857917190793</v>
+        <v>0.0331618499755848</v>
       </c>
       <c r="E22" t="n">
-        <v>0.466879473165169</v>
+        <v>0.001099708293803194</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.38</v>
       </c>
       <c r="C23" t="n">
-        <v>31.78113201892211</v>
+        <v>31.2291316986084</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4011320189221124</v>
+        <v>-0.150868301391597</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1609068966045299</v>
+        <v>0.02276124436478575</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.58</v>
       </c>
       <c r="C24" t="n">
-        <v>32.160315343314</v>
+        <v>31.40299797058105</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5803153433140054</v>
+        <v>-0.1770020294189436</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3367658976856519</v>
+        <v>0.03132971841842458</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>31.65</v>
+        <v>31.65000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>32.00960149047535</v>
+        <v>31.89637565612793</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3596014904753559</v>
+        <v>0.246375656127924</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1293132319520975</v>
+        <v>0.06070096393246505</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.88</v>
       </c>
       <c r="C26" t="n">
-        <v>32.63924261539053</v>
+        <v>32.42288589477539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7592426153905301</v>
+        <v>0.5428858947753952</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5764493490250524</v>
+        <v>0.2947250947460814</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.28</v>
       </c>
       <c r="C27" t="n">
-        <v>32.54260657892653</v>
+        <v>32.39987564086914</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2626065789265297</v>
+        <v>0.1198756408691395</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06896221529549569</v>
+        <v>0.0143701692737869</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.45</v>
       </c>
       <c r="C28" t="n">
-        <v>32.63701460952016</v>
+        <v>32.49711227416992</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1870146095201619</v>
+        <v>0.04711227416991903</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03497446417397863</v>
+        <v>0.00221956637746162</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>22</v>
       </c>
       <c r="B29" t="n">
-        <v>32.85</v>
+        <v>32.84999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>32.90057566603382</v>
+        <v>32.75205612182617</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05057566603382213</v>
+        <v>-0.09794387817382244</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00255789799476471</v>
+        <v>0.009593003271728571</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>21</v>
       </c>
       <c r="B30" t="n">
-        <v>32.9</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>33.03819570847567</v>
+        <v>32.95458602905273</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1381957084756706</v>
+        <v>0.05458602905272869</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01909805384109255</v>
+        <v>0.002979634567745341</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>33.1</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>33.09098749567925</v>
+        <v>32.89218521118164</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.009012504320750736</v>
+        <v>-0.2078147888183537</v>
       </c>
       <c r="E31" t="n">
-        <v>8.122523413155069e-05</v>
+        <v>0.04318698645161694</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>33.4</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>33.90732008781475</v>
+        <v>33.6392707824707</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5073200878147475</v>
+        <v>0.2392707824706974</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2573736715003631</v>
+        <v>0.05725050734413981</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.7</v>
       </c>
       <c r="C33" t="n">
-        <v>33.87702641505651</v>
+        <v>33.65039443969727</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1770264150565097</v>
+        <v>-0.04960556030273722</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03133835162775966</v>
+        <v>0.002460711612948498</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>34.1</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>34.03465604421379</v>
+        <v>33.84643173217773</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.06534395578621144</v>
+        <v>-0.2535682678222599</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004269832557790355</v>
+        <v>0.06429686644638134</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>34.4</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>34.22302632320909</v>
+        <v>34.40230941772461</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.176973676790908</v>
+        <v>0.002309417724603691</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03131968227689278</v>
+        <v>5.333410226713688e-06</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>34.9</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>34.82030886764005</v>
+        <v>35.04678726196289</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0796911323599474</v>
+        <v>0.1467872619628849</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006350676576810656</v>
+        <v>0.02154650027456061</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.3</v>
       </c>
       <c r="C37" t="n">
-        <v>35.83708905116644</v>
+        <v>35.71496200561523</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5370890511664399</v>
+        <v>0.4149620056152372</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2884646488828667</v>
+        <v>0.1721934661042202</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.7</v>
       </c>
       <c r="C38" t="n">
-        <v>36.2456970187278</v>
+        <v>36.00539016723633</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5456970187277932</v>
+        <v>0.3053901672363253</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2977852362484015</v>
+        <v>0.09326315424463072</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.3</v>
       </c>
       <c r="C39" t="n">
-        <v>36.50749343515574</v>
+        <v>36.00448989868164</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2074934351557403</v>
+        <v>-0.2955101013183565</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04305352563272938</v>
+        <v>0.08732621998118534</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.8</v>
       </c>
       <c r="C40" t="n">
-        <v>37.04373366181021</v>
+        <v>36.59141159057617</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2437336618102108</v>
+        <v>-0.2085884094238253</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05940609789941423</v>
+        <v>0.04350912454596136</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.3</v>
       </c>
       <c r="C41" t="n">
-        <v>37.11686272164241</v>
+        <v>37.24056625366211</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1831372783575915</v>
+        <v>-0.05943374633788778</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03353926272422596</v>
+        <v>0.003532370203756389</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>9</v>
       </c>
       <c r="B42" t="n">
-        <v>37.9</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>37.91988778998029</v>
+        <v>37.99029922485352</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01988778998029517</v>
+        <v>0.09029922485350994</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0003955241903003288</v>
+        <v>0.008153950009144748</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.5</v>
       </c>
       <c r="C43" t="n">
-        <v>38.46681989058308</v>
+        <v>38.42107772827148</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.03318010941691796</v>
+        <v>-0.07892227172851562</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001100919660918648</v>
+        <v>0.006228724974789657</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>38.9</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>38.82259872457563</v>
+        <v>39.00311660766602</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.07740127542436426</v>
+        <v>0.1031166076660099</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005990957437318294</v>
+        <v>0.01063303477654582</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="n">
-        <v>39.4</v>
+        <v>39.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>39.21682565764348</v>
+        <v>39.53226852416992</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1831743423565158</v>
+        <v>0.1322685241699162</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03355283969774204</v>
+        <v>0.0174949624860877</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>39.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>39.40256336554837</v>
+        <v>39.5301399230957</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4974366344516312</v>
+        <v>-0.3698600769043026</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2474432052945658</v>
+        <v>0.1367964764876566</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>40.1</v>
+        <v>40.09999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>39.71756715083095</v>
+        <v>39.9373664855957</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3824328491690494</v>
+        <v>-0.1626335144042912</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1462548841235569</v>
+        <v>0.02644966000749079</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="n">
-        <v>40.6</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>39.94794240855921</v>
+        <v>40.45168685913086</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.6520575914407871</v>
+        <v>-0.1483131408691349</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4251791025555605</v>
+        <v>0.02199678775446786</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>40.9</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>40.25461080979261</v>
+        <v>40.73793411254883</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.6453891902073892</v>
+        <v>-0.1620658874511776</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4165272068365495</v>
+        <v>0.02626535187533775</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>41.2</v>
+        <v>41.20000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>41.20170555541303</v>
+        <v>41.31341552734375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001705555413025195</v>
+        <v>0.1134155273437401</v>
       </c>
       <c r="E50" t="n">
-        <v>2.908919266899543e-06</v>
+        <v>0.01286308184265865</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.5</v>
       </c>
       <c r="C51" t="n">
-        <v>41.43320693910871</v>
+        <v>41.75338745117188</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.06679306089128545</v>
+        <v>0.253387451171875</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004461312983226965</v>
+        <v>0.06420520041137934</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-0.2254557378848219</v>
+        <v>0.1432662963866917</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>9.11363655173159</v>
+        <v>1.856198709984518</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1822727310346318</v>
+        <v>0.03712397419969036</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_4.xlsx
+++ b/partial/sliding_window_results_window_4.xlsx
@@ -468,13 +468,13 @@
         <v>29.37</v>
       </c>
       <c r="C2" t="n">
-        <v>29.7437801361084</v>
+        <v>29.72844505310059</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3737801361083939</v>
+        <v>0.3584450531005814</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1397115901492095</v>
+        <v>0.1284828560922786</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.53999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>29.31538963317871</v>
+        <v>29.3155574798584</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2246103668212811</v>
+        <v>-0.2244425201415936</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05044981688359045</v>
+        <v>0.05037444484750965</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.55</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4737377166748</v>
+        <v>29.4792537689209</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07626228332519247</v>
+        <v>-0.07074623107909872</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005815935857971929</v>
+        <v>0.005005029211897234</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.75</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6823787689209</v>
+        <v>29.68236351013184</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06762123107910156</v>
+        <v>-0.06763648986816406</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004572630892653251</v>
+        <v>0.00457469476168626</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.84</v>
       </c>
       <c r="C6" t="n">
-        <v>29.89393424987793</v>
+        <v>29.89312553405762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05393424987792628</v>
+        <v>0.05312553405761378</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00290890330989459</v>
+        <v>0.002822322368906681</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.81</v>
       </c>
       <c r="C7" t="n">
-        <v>29.88800621032715</v>
+        <v>29.88652610778809</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07800621032714616</v>
+        <v>0.07652610778808366</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006084968849602965</v>
+        <v>0.005856245173193399</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.92</v>
       </c>
       <c r="C8" t="n">
-        <v>29.92011070251465</v>
+        <v>29.91668510437012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001107025146467322</v>
+        <v>-0.003314895629884518</v>
       </c>
       <c r="E8" t="n">
-        <v>1.225504674910996e-08</v>
+        <v>1.098853303702747e-05</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.98</v>
       </c>
       <c r="C9" t="n">
-        <v>30.01376152038574</v>
+        <v>30.00446891784668</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03376152038573821</v>
+        <v>0.02446891784667571</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001139840258756617</v>
+        <v>0.000598727940587365</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.03999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>30.16930961608887</v>
+        <v>30.16177177429199</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1293096160888751</v>
+        <v>0.1217717742920001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01672097681305228</v>
+        <v>0.01482836501422183</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.21000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>30.22289848327637</v>
+        <v>30.2205638885498</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01289848327635923</v>
+        <v>0.01056388854979673</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001663708708305187</v>
+        <v>0.0001115957412925264</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.22</v>
       </c>
       <c r="C12" t="n">
-        <v>30.32418632507324</v>
+        <v>30.32330131530762</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1041863250732433</v>
+        <v>0.1033013153076183</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01085479033226753</v>
+        <v>0.01067116174428398</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.38</v>
       </c>
       <c r="C13" t="n">
-        <v>30.36539268493652</v>
+        <v>30.36890983581543</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01460731506347202</v>
+        <v>-0.01109016418456577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002133736533635364</v>
+        <v>0.0001229917416406252</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.44</v>
       </c>
       <c r="C14" t="n">
-        <v>30.54109001159668</v>
+        <v>30.53747367858887</v>
       </c>
       <c r="D14" t="n">
-        <v>0.101090011596682</v>
+        <v>0.09747367858886946</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01021919044461729</v>
+        <v>0.009501118017646229</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.48</v>
       </c>
       <c r="C15" t="n">
-        <v>30.4333324432373</v>
+        <v>30.43703269958496</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.04666755676269929</v>
+        <v>-0.04296730041504304</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00217786085419976</v>
+        <v>0.001846188904956558</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.69</v>
       </c>
       <c r="C16" t="n">
-        <v>30.44302177429199</v>
+        <v>30.45171928405762</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2469782257080055</v>
+        <v>-0.2382807159423805</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06099824397387453</v>
+        <v>0.05677769959001344</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.75</v>
       </c>
       <c r="C17" t="n">
-        <v>30.52885246276855</v>
+        <v>30.5451488494873</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2211475372314453</v>
+        <v>-0.2048511505126953</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04890623322353349</v>
+        <v>0.04196399386637495</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.94</v>
       </c>
       <c r="C18" t="n">
-        <v>30.65643119812012</v>
+        <v>30.66615104675293</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2835688018798805</v>
+        <v>-0.273848953247068</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08041126539959094</v>
+        <v>0.07499324919451486</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.95</v>
       </c>
       <c r="C19" t="n">
-        <v>30.76356315612793</v>
+        <v>30.77667808532715</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1864368438720732</v>
+        <v>-0.1733219146728544</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03475869675297978</v>
+        <v>0.03004048610586422</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.02</v>
       </c>
       <c r="C20" t="n">
-        <v>31.10555839538574</v>
+        <v>31.10544395446777</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08555839538574617</v>
+        <v>0.08544395446777742</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007320239020983671</v>
+        <v>0.00730066935509162</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.12</v>
       </c>
       <c r="C21" t="n">
-        <v>31.2354564666748</v>
+        <v>31.2363338470459</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1154564666748001</v>
+        <v>0.1163338470458939</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01333019569702924</v>
+        <v>0.01353356396849744</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.28</v>
       </c>
       <c r="C22" t="n">
-        <v>31.31316184997559</v>
+        <v>31.30534172058105</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0331618499755848</v>
+        <v>0.02534172058105355</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001099708293803194</v>
+        <v>0.0006422028020081931</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.38</v>
       </c>
       <c r="C23" t="n">
-        <v>31.2291316986084</v>
+        <v>31.23087120056152</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.150868301391597</v>
+        <v>-0.149128799438472</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02276124436478575</v>
+        <v>0.02223939882196001</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.58</v>
       </c>
       <c r="C24" t="n">
-        <v>31.40299797058105</v>
+        <v>31.40585899353027</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1770020294189436</v>
+        <v>-0.1741410064697249</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03132971841842458</v>
+        <v>0.03032509013428876</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.65000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>31.89637565612793</v>
+        <v>31.8911190032959</v>
       </c>
       <c r="D25" t="n">
-        <v>0.246375656127924</v>
+        <v>0.2411190032958928</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06070096393246505</v>
+        <v>0.05813837375040474</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.88</v>
       </c>
       <c r="C26" t="n">
-        <v>32.42288589477539</v>
+        <v>32.4210090637207</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5428858947753952</v>
+        <v>0.5410090637207077</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2947250947460814</v>
+        <v>0.2926908070279567</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.28</v>
       </c>
       <c r="C27" t="n">
-        <v>32.39987564086914</v>
+        <v>32.41061019897461</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1198756408691395</v>
+        <v>0.1306101989746082</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0143701692737869</v>
+        <v>0.01705902407618675</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.45</v>
       </c>
       <c r="C28" t="n">
-        <v>32.49711227416992</v>
+        <v>32.50581741333008</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04711227416991903</v>
+        <v>0.05581741333007528</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00221956637746162</v>
+        <v>0.003115583630860466</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.84999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>32.75205612182617</v>
+        <v>32.7569465637207</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.09794387817382244</v>
+        <v>-0.09305343627929119</v>
       </c>
       <c r="E29" t="n">
-        <v>0.009593003271728571</v>
+        <v>0.008658942003384107</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>32.95458602905273</v>
+        <v>32.94971084594727</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05458602905272869</v>
+        <v>0.04971084594725994</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002979634567745341</v>
+        <v>0.00247116820479221</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>32.89218521118164</v>
+        <v>32.88310623168945</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2078147888183537</v>
+        <v>-0.2168937683105412</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04318698645161694</v>
+        <v>0.04704290673194672</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.40000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>33.6392707824707</v>
+        <v>33.62636184692383</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2392707824706974</v>
+        <v>0.2263618469238224</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05725050734413981</v>
+        <v>0.05123968574276402</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.7</v>
       </c>
       <c r="C33" t="n">
-        <v>33.65039443969727</v>
+        <v>33.63798141479492</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.04960556030273722</v>
+        <v>-0.06201858520508097</v>
       </c>
       <c r="E33" t="n">
-        <v>0.002460711612948498</v>
+        <v>0.003846304910839888</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.09999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>33.84643173217773</v>
+        <v>33.82954788208008</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2535682678222599</v>
+        <v>-0.2704521179199162</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06429686644638134</v>
+        <v>0.07314434808736825</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.40000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>34.40230941772461</v>
+        <v>34.39118576049805</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002309417724603691</v>
+        <v>-0.008814239501958809</v>
       </c>
       <c r="E35" t="n">
-        <v>5.333410226713688e-06</v>
+        <v>7.769081799789109e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>35.04678726196289</v>
+        <v>35.02691268920898</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1467872619628849</v>
+        <v>0.1269126892089787</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02154650027456061</v>
+        <v>0.01610683068225482</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.3</v>
       </c>
       <c r="C37" t="n">
-        <v>35.71496200561523</v>
+        <v>35.71844863891602</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4149620056152372</v>
+        <v>0.4184486389160185</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1721934661042202</v>
+        <v>0.1750992634106684</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.7</v>
       </c>
       <c r="C38" t="n">
-        <v>36.00539016723633</v>
+        <v>36.00712966918945</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3053901672363253</v>
+        <v>0.3071296691894503</v>
       </c>
       <c r="E38" t="n">
-        <v>0.09326315424463072</v>
+        <v>0.09432863369642117</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.3</v>
       </c>
       <c r="C39" t="n">
-        <v>36.00448989868164</v>
+        <v>36.01631546020508</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2955101013183565</v>
+        <v>-0.283684539794919</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08732621998118534</v>
+        <v>0.080476918118655</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.8</v>
       </c>
       <c r="C40" t="n">
-        <v>36.59141159057617</v>
+        <v>36.60338973999023</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2085884094238253</v>
+        <v>-0.1966102600097628</v>
       </c>
       <c r="E40" t="n">
-        <v>0.04350912454596136</v>
+        <v>0.03865559434110653</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.3</v>
       </c>
       <c r="C41" t="n">
-        <v>37.24056625366211</v>
+        <v>37.23566055297852</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.05943374633788778</v>
+        <v>-0.06433944702148153</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003532370203756389</v>
+        <v>0.004139564443030029</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>37.99029922485352</v>
+        <v>37.99951553344727</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09029922485350994</v>
+        <v>0.09951553344725994</v>
       </c>
       <c r="E42" t="n">
-        <v>0.008153950009144748</v>
+        <v>0.009903341397292712</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.5</v>
       </c>
       <c r="C43" t="n">
-        <v>38.42107772827148</v>
+        <v>38.44073104858398</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.07892227172851562</v>
+        <v>-0.05926895141601562</v>
       </c>
       <c r="E43" t="n">
-        <v>0.006228724974789657</v>
+        <v>0.003512808601954021</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>39.00311660766602</v>
+        <v>39.00436782836914</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1031166076660099</v>
+        <v>0.1043678283691349</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01063303477654582</v>
+        <v>0.01089264359848921</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>39.53226852416992</v>
+        <v>39.5280876159668</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1322685241699162</v>
+        <v>0.1280876159667912</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0174949624860877</v>
+        <v>0.01640643736405618</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>39.5301399230957</v>
+        <v>39.53042984008789</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.3698600769043026</v>
+        <v>-0.3695701599121151</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1367964764876566</v>
+        <v>0.1365821030974663</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.09999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>39.9373664855957</v>
+        <v>39.92853164672852</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1626335144042912</v>
+        <v>-0.1714683532714787</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02644966000749079</v>
+        <v>0.02940139617363262</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>40.45168685913086</v>
+        <v>40.43240737915039</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1483131408691349</v>
+        <v>-0.1675926208496037</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02199678775446786</v>
+        <v>0.02808728656323902</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>40.73793411254883</v>
+        <v>40.7296028137207</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1620658874511776</v>
+        <v>-0.1703971862793026</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02626535187533775</v>
+        <v>0.02903520109190334</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.20000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>41.31341552734375</v>
+        <v>41.32352828979492</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1134155273437401</v>
+        <v>0.1235282897949119</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01286308184265865</v>
+        <v>0.01525923837965574</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.5</v>
       </c>
       <c r="C51" t="n">
-        <v>41.75338745117188</v>
+        <v>41.79129028320312</v>
       </c>
       <c r="D51" t="n">
-        <v>0.253387451171875</v>
+        <v>0.291290283203125</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06420520041137934</v>
+        <v>0.08485002908855677</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.1432662963866917</v>
+        <v>0.1487709045409886</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>1.856198709984518</v>
+        <v>1.842845208964635</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.03712397419969036</v>
+        <v>0.0368569041792927</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_4.xlsx
+++ b/partial/sliding_window_results_window_4.xlsx
@@ -468,13 +468,13 @@
         <v>29.37</v>
       </c>
       <c r="C2" t="n">
-        <v>28.89001476677979</v>
+        <v>29.93040638646515</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4799852332202157</v>
+        <v>0.5604063864651536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2303858241094648</v>
+        <v>0.3140553179909311</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.54</v>
       </c>
       <c r="C3" t="n">
-        <v>28.75143858845029</v>
+        <v>29.32506259951632</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7885614115497042</v>
+        <v>-0.2149374004836773</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6218290997852619</v>
+        <v>0.04619808612668067</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.55</v>
       </c>
       <c r="C4" t="n">
-        <v>29.89835923284729</v>
+        <v>29.77535200065974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3483592328472938</v>
+        <v>0.2253520006597398</v>
       </c>
       <c r="E4" t="n">
-        <v>0.121354155109955</v>
+        <v>0.05078352420134737</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.75</v>
       </c>
       <c r="C5" t="n">
-        <v>29.63077792719183</v>
+        <v>29.6515993714725</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1192220728081672</v>
+        <v>-0.09840062852750009</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01421390264467592</v>
+        <v>0.009682683694607064</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.84</v>
       </c>
       <c r="C6" t="n">
-        <v>30.5128942614997</v>
+        <v>30.2031358527179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6728942614997031</v>
+        <v>0.3631358527178961</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4527866871592308</v>
+        <v>0.1318676475291535</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.81</v>
       </c>
       <c r="C7" t="n">
-        <v>30.38213655779985</v>
+        <v>30.08469355855535</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5721365577998547</v>
+        <v>0.2746935585553487</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3273402407710665</v>
+        <v>0.07545655111180079</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.92</v>
       </c>
       <c r="C8" t="n">
-        <v>30.20936628021572</v>
+        <v>29.83023722208232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2893662802157166</v>
+        <v>-0.08976277791768439</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08373284412588064</v>
+        <v>0.008057356299499528</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.98</v>
       </c>
       <c r="C9" t="n">
-        <v>29.55296524203012</v>
+        <v>29.75417165550755</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4270347579698814</v>
+        <v>-0.2258283444924487</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1823586845143952</v>
+        <v>0.05099844117620009</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.04</v>
       </c>
       <c r="C10" t="n">
-        <v>29.82614341319439</v>
+        <v>29.76025260776232</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2138565868056048</v>
+        <v>-0.279747392237681</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04573463972014319</v>
+        <v>0.07825860346378292</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.21</v>
       </c>
       <c r="C11" t="n">
-        <v>29.36463635328873</v>
+        <v>29.83803663878533</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8453636467112702</v>
+        <v>-0.371963361214668</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7146396951809773</v>
+        <v>0.1383567420861136</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.22</v>
       </c>
       <c r="C12" t="n">
-        <v>29.76049113547246</v>
+        <v>30.01462314165534</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4595088645275425</v>
+        <v>-0.2053768583446605</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2111483965793914</v>
+        <v>0.04217965394352273</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.38</v>
       </c>
       <c r="C13" t="n">
-        <v>29.57582474233583</v>
+        <v>30.31141795601553</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8041752576641734</v>
+        <v>-0.06858204398446688</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6466978450392397</v>
+        <v>0.004703496757087349</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.44</v>
       </c>
       <c r="C14" t="n">
-        <v>30.25487101437291</v>
+        <v>30.57077553773555</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1851289856270917</v>
+        <v>0.1307755377355484</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03427274131931592</v>
+        <v>0.01710224127002184</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.48</v>
       </c>
       <c r="C15" t="n">
-        <v>30.24752593861029</v>
+        <v>30.32483362114042</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2324740613897056</v>
+        <v>-0.1551663788595832</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05404418921902461</v>
+        <v>0.0240766051283957</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.69</v>
       </c>
       <c r="C16" t="n">
-        <v>30.50795299579393</v>
+        <v>30.35613061192455</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1820470042060691</v>
+        <v>-0.3338693880754562</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03314111174040454</v>
+        <v>0.1114687682938796</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.75</v>
       </c>
       <c r="C17" t="n">
-        <v>30.14916819334217</v>
+        <v>30.87410749143421</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.6008318066578333</v>
+        <v>0.1241074914342057</v>
       </c>
       <c r="E17" t="n">
-        <v>0.360998859891716</v>
+        <v>0.01540266943009145</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.94</v>
       </c>
       <c r="C18" t="n">
-        <v>30.54755445311316</v>
+        <v>30.7632536985891</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3924455468868437</v>
+        <v>-0.1767463014108976</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1540135072713139</v>
+        <v>0.03123925506243188</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.95</v>
       </c>
       <c r="C19" t="n">
-        <v>30.83058250184288</v>
+        <v>30.89930378231916</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1194174981571194</v>
+        <v>-0.05069621768083721</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01426053886610562</v>
+        <v>0.002570106487142831</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.02</v>
       </c>
       <c r="C20" t="n">
-        <v>31.44412689269855</v>
+        <v>31.13777421556491</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4241268926985455</v>
+        <v>0.1177742155649142</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1798836211101235</v>
+        <v>0.01387076585193087</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.12</v>
       </c>
       <c r="C21" t="n">
-        <v>31.82781453430661</v>
+        <v>31.28926585984339</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7078145343066069</v>
+        <v>0.1692658598433923</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5010014149756788</v>
+        <v>0.02865093130852291</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.28</v>
       </c>
       <c r="C22" t="n">
-        <v>31.96328579171908</v>
+        <v>31.19905793677455</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6832857917190793</v>
+        <v>-0.08094206322545361</v>
       </c>
       <c r="E22" t="n">
-        <v>0.466879473165169</v>
+        <v>0.00655161759919333</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.38</v>
       </c>
       <c r="C23" t="n">
-        <v>31.78113201892211</v>
+        <v>31.11989792002061</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4011320189221124</v>
+        <v>-0.2601020799793901</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1609068966045299</v>
+        <v>0.06765309200960502</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.58</v>
       </c>
       <c r="C24" t="n">
-        <v>32.160315343314</v>
+        <v>31.32230849825455</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5803153433140054</v>
+        <v>-0.2576915017454482</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3367658976856519</v>
+        <v>0.06640491007182434</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.65</v>
       </c>
       <c r="C25" t="n">
-        <v>32.00960149047535</v>
+        <v>31.78016681862083</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3596014904753559</v>
+        <v>0.130166818620836</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1293132319520975</v>
+        <v>0.01694340066986962</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.88</v>
       </c>
       <c r="C26" t="n">
-        <v>32.63924261539053</v>
+        <v>32.52623230257632</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7592426153905301</v>
+        <v>0.646232302576319</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5764493490250524</v>
+        <v>0.4176161888930912</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.28</v>
       </c>
       <c r="C27" t="n">
-        <v>32.54260657892653</v>
+        <v>32.57684602740945</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2626065789265297</v>
+        <v>0.296846027409444</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06896221529549569</v>
+        <v>0.08811756398876837</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.45</v>
       </c>
       <c r="C28" t="n">
-        <v>32.63701460952016</v>
+        <v>32.91880862076341</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1870146095201619</v>
+        <v>0.4688086207634043</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03497446417397863</v>
+        <v>0.2197815229020855</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.85</v>
       </c>
       <c r="C29" t="n">
-        <v>32.90057566603382</v>
+        <v>33.19745864027098</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05057566603382213</v>
+        <v>0.3474586402709789</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00255789799476471</v>
+        <v>0.1207275066989576</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.9</v>
       </c>
       <c r="C30" t="n">
-        <v>33.03819570847567</v>
+        <v>33.25509844645786</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1381957084756706</v>
+        <v>0.3550984464578661</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01909805384109255</v>
+        <v>0.12609490667679</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.1</v>
       </c>
       <c r="C31" t="n">
-        <v>33.09098749567925</v>
+        <v>33.33737814353816</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.009012504320750736</v>
+        <v>0.2373781435381588</v>
       </c>
       <c r="E31" t="n">
-        <v>8.122523413155069e-05</v>
+        <v>0.05634838302962272</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.4</v>
       </c>
       <c r="C32" t="n">
-        <v>33.90732008781475</v>
+        <v>33.74769882878559</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5073200878147475</v>
+        <v>0.3476988287855889</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2573736715003631</v>
+        <v>0.1208944755388703</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.7</v>
       </c>
       <c r="C33" t="n">
-        <v>33.87702641505651</v>
+        <v>33.74683683692324</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1770264150565097</v>
+        <v>0.04683683692324081</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03133835162775966</v>
+        <v>0.002193689292974254</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.1</v>
       </c>
       <c r="C34" t="n">
-        <v>34.03465604421379</v>
+        <v>33.81645724358367</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.06534395578621144</v>
+        <v>-0.2835427564163311</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004269832557790355</v>
+        <v>0.08039649471617086</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.4</v>
       </c>
       <c r="C35" t="n">
-        <v>34.22302632320909</v>
+        <v>34.20987557560572</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.176973676790908</v>
+        <v>-0.190124424394277</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03131968227689278</v>
+        <v>0.03614729675125516</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.9</v>
       </c>
       <c r="C36" t="n">
-        <v>34.82030886764005</v>
+        <v>34.42951112912753</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0796911323599474</v>
+        <v>-0.4704888708724653</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006350676576810656</v>
+        <v>0.2213597776148473</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>35.3</v>
       </c>
       <c r="C37" t="n">
-        <v>35.83708905116644</v>
+        <v>35.46831273599246</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5370890511664399</v>
+        <v>0.1683127359924583</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2884646488828667</v>
+        <v>0.02832917709726698</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.7</v>
       </c>
       <c r="C38" t="n">
-        <v>36.2456970187278</v>
+        <v>35.73577698497842</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5456970187277932</v>
+        <v>0.03577698497841908</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2977852362484015</v>
+        <v>0.001279992654146024</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>36.3</v>
       </c>
       <c r="C39" t="n">
-        <v>36.50749343515574</v>
+        <v>36.01183120736154</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2074934351557403</v>
+        <v>-0.2881687926384586</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04305352563272938</v>
+        <v>0.08304125305070696</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.8</v>
       </c>
       <c r="C40" t="n">
-        <v>37.04373366181021</v>
+        <v>36.63353645952962</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2437336618102108</v>
+        <v>-0.1664635404703745</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05940609789941423</v>
+        <v>0.027710110305932</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>37.3</v>
       </c>
       <c r="C41" t="n">
-        <v>37.11686272164241</v>
+        <v>36.72230890903101</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1831372783575915</v>
+        <v>-0.5776910909689903</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03353926272422596</v>
+        <v>0.3337269965849422</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.9</v>
       </c>
       <c r="C42" t="n">
-        <v>37.91988778998029</v>
+        <v>37.82487224815392</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01988778998029517</v>
+        <v>-0.07512775184607534</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0003955241903003288</v>
+        <v>0.005644179097445477</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>38.5</v>
       </c>
       <c r="C43" t="n">
-        <v>38.46681989058308</v>
+        <v>38.59315908521873</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.03318010941691796</v>
+        <v>0.09315908521872984</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001100919660918648</v>
+        <v>0.00867861515879057</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.9</v>
       </c>
       <c r="C44" t="n">
-        <v>38.82259872457563</v>
+        <v>39.04101527828282</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.07740127542436426</v>
+        <v>0.141015278282822</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005990957437318294</v>
+        <v>0.01988530870918173</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>39.4</v>
       </c>
       <c r="C45" t="n">
-        <v>39.21682565764348</v>
+        <v>39.44285168523187</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1831743423565158</v>
+        <v>0.04285168523186655</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03355283969774204</v>
+        <v>0.00183626692721097</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.9</v>
       </c>
       <c r="C46" t="n">
-        <v>39.40256336554837</v>
+        <v>39.70063914821225</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4974366344516312</v>
+        <v>-0.1993608517877519</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2474432052945658</v>
+        <v>0.03974474922553797</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.1</v>
       </c>
       <c r="C47" t="n">
-        <v>39.71756715083095</v>
+        <v>40.02057981949194</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3824328491690494</v>
+        <v>-0.07942018050805899</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1462548841235569</v>
+        <v>0.006307565071932674</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.6</v>
       </c>
       <c r="C48" t="n">
-        <v>39.94794240855921</v>
+        <v>40.24804694129041</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.6520575914407871</v>
+        <v>-0.35195305870959</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4251791025555605</v>
+        <v>0.1238709555350361</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.9</v>
       </c>
       <c r="C49" t="n">
-        <v>40.25461080979261</v>
+        <v>40.5721519782377</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.6453891902073892</v>
+        <v>-0.3278480217622999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4165272068365495</v>
+        <v>0.1074843253734535</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.2</v>
       </c>
       <c r="C50" t="n">
-        <v>41.20170555541303</v>
+        <v>41.70425954152643</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001705555413025195</v>
+        <v>0.5042595415264302</v>
       </c>
       <c r="E50" t="n">
-        <v>2.908919266899543e-06</v>
+        <v>0.2542776852204455</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.5</v>
       </c>
       <c r="C51" t="n">
-        <v>41.43320693910871</v>
+        <v>41.83056249333569</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.06679306089128545</v>
+        <v>0.330562493335691</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004461312983226965</v>
+        <v>0.1092715620003088</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-0.2254557378848219</v>
+        <v>0.277971294333927</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>9.11363655173159</v>
+        <v>3.993299015679407</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1822727310346318</v>
+        <v>0.07986598031358813</v>
       </c>
     </row>
   </sheetData>
